--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,35 +461,55 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Seed</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hidden Dimensions</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>layers</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Bins</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>C-index</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Uncensored C-index</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Concordant</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Discordant</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tied Risk</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Tied Time</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -503,7 +523,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>deepsurv</t>
+          <t>deepcdf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -518,25 +538,37 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6590164451237916</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6024034196075368</v>
+        <v>1024</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6592500429090686</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3407499570909315</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>64.40000000000001</v>
+        <v>0.6534809254473488</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>0.6405554351743297</v>
       </c>
       <c r="L2" t="n">
-        <v>4.486383390426636</v>
+        <v>0.6536743114759006</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3463256885240993</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.363062500953674</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +579,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>deephit</t>
+          <t>deepcdf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,25 +594,37 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5287640436922367</v>
+        <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5416889015802455</v>
+        <v>1024</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5302978631465967</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4697021368534034</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>2354</v>
+        <v>0.6680157586772768</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>0.6051446893772768</v>
       </c>
       <c r="L3" t="n">
-        <v>2.385750532150269</v>
+        <v>0.6682097965406706</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3317902034593295</v>
+      </c>
+      <c r="N3" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.941146278381348</v>
       </c>
     </row>
     <row r="4">
@@ -591,7 +635,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>deepcdf</t>
+          <t>deepsurv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,25 +650,1269 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6596334205111977</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6094202690547196</v>
+        <v>1024</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6598597227714741</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3401402772285259</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
+        <v>0.6629070486050315</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5905041822376822</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.663083162525256</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3369168374747441</v>
+      </c>
+      <c r="N4" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.468418884277344</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>256</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6652930389610064</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6190165131449955</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.665528534821741</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.334471465178259</v>
+      </c>
+      <c r="N5" t="n">
         <v>62.6</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O5" t="n">
         <v>6.4</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.6618826746940613</v>
+      <c r="P5" t="n">
+        <v>1.633709180355072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6309039501067863</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.575181430690894</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6310230342640629</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.3689769657359371</v>
+      </c>
+      <c r="N6" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>174.5675299406052</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>42</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6695837694748754</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.615373224044599</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.6697373306997088</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3302626693002912</v>
+      </c>
+      <c r="N7" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.702585995197296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.668883830968689</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6074251735564428</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6690372554816451</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.3309627445183551</v>
+      </c>
+      <c r="N8" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.502553486824036</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6689731463745889</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6138336542484302</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6691251363101753</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3308748636898248</v>
+      </c>
+      <c r="N9" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.3734583258628845</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42</v>
+      </c>
+      <c r="G10" t="n">
+        <v>256</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6528467038356885</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6161383121489032</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6530061056110731</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3469938943889269</v>
+      </c>
+      <c r="N10" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.047066867351532</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5764697685664032</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5640341118715634</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5765805626926813</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4234194373073187</v>
+      </c>
+      <c r="N11" t="n">
+        <v>61</v>
+      </c>
+      <c r="O11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.068649959564209</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>42</v>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.6305306012203227</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.6160235809600753</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.6307120517741601</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3692879482258399</v>
+      </c>
+      <c r="N12" t="n">
+        <v>61</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.052653336524963</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2048</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.651756599032782</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6062214753192839</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.6519477944599638</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3480522055400362</v>
+      </c>
+      <c r="N13" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.069352746009827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6791552443693604</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.622784630336344</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6793303050837542</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3206696949162457</v>
+      </c>
+      <c r="N14" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.040702199935913</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6804162190034804</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6001763767872317</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.6806752447122628</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3193247552877372</v>
+      </c>
+      <c r="N15" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.436575555801392</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6843827303402733</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.6105398366125497</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.6845486984173281</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.315451301582672</v>
+      </c>
+      <c r="N16" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.3227863073349</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>42</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6827355602692202</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.6199791947914577</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.6828988894016792</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3171011105983207</v>
+      </c>
+      <c r="N17" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.242492163181305</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>42</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.6834502217126038</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6187248016797591</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.6836418901573736</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.3163581098426262</v>
+      </c>
+      <c r="N18" t="n">
+        <v>45</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.276926386356354</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>42</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.6802367286705338</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6207041745714019</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.680396916624149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.319603083375851</v>
+      </c>
+      <c r="N19" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9529659807682037</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>42</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6816071556080303</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.621604660884118</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.681768938752686</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3182310612473141</v>
+      </c>
+      <c r="N20" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.191901123523712</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>42</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.6826902932449965</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6107223928734471</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6828541625941477</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3171458374058523</v>
+      </c>
+      <c r="N21" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.322994327545166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>100</v>
+      </c>
+      <c r="F22" t="n">
+        <v>42</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6871229461711003</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6231247434517455</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.6873195508118911</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3126804491881088</v>
+      </c>
+      <c r="N22" t="n">
+        <v>45</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.255576312541962</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
+        <v>42</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.685919923539019</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.6258798499096814</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.686097279380572</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3139027206194281</v>
+      </c>
+      <c r="N23" t="n">
+        <v>41</v>
+      </c>
+      <c r="O23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.123117518424988</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" t="n">
+        <v>42</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.668377770143479</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.6243576104929047</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6685450208079787</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.3314549791920212</v>
+      </c>
+      <c r="N24" t="n">
+        <v>42</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.183988857269287</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>100</v>
+      </c>
+      <c r="F25" t="n">
+        <v>42</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>12</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.688145035818958</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.6134494527236518</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6883877965769255</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3116122034230746</v>
+      </c>
+      <c r="N25" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.185201358795166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>100</v>
+      </c>
+      <c r="F26" t="n">
+        <v>42</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>18</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.6822036857009222</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.629776194822629</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6823877343334368</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3176122656665631</v>
+      </c>
+      <c r="N26" t="n">
+        <v>44</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.231118047237396</v>
       </c>
     </row>
   </sheetData>

--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,19 +827,19 @@
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6695837694748754</v>
+        <v>0.668883830968689</v>
       </c>
       <c r="K7" t="n">
-        <v>0.615373224044599</v>
+        <v>0.6074251735564428</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6697373306997088</v>
+        <v>0.6690372554816451</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3302626693002912</v>
+        <v>0.3309627445183551</v>
       </c>
       <c r="N7" t="n">
         <v>38.4</v>
@@ -848,7 +848,7 @@
         <v>5.2</v>
       </c>
       <c r="P7" t="n">
-        <v>1.702585995197296</v>
+        <v>2.502553486824036</v>
       </c>
     </row>
     <row r="8">
@@ -883,19 +883,19 @@
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>0.668883830968689</v>
+        <v>0.6689731463745889</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6074251735564428</v>
+        <v>0.6138336542484302</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6690372554816451</v>
+        <v>0.6691251363101753</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3309627445183551</v>
+        <v>0.3308748636898248</v>
       </c>
       <c r="N8" t="n">
         <v>38.4</v>
@@ -904,7 +904,7 @@
         <v>5.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.502553486824036</v>
+        <v>0.3734583258628845</v>
       </c>
     </row>
     <row r="9">
@@ -933,34 +933,34 @@
         <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6689731463745889</v>
+        <v>0.6528467038356885</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6138336542484302</v>
+        <v>0.6161383121489032</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6691251363101753</v>
+        <v>0.6530061056110731</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3308748636898248</v>
+        <v>0.3469938943889269</v>
       </c>
       <c r="N9" t="n">
-        <v>38.4</v>
+        <v>46.6</v>
       </c>
       <c r="O9" t="n">
         <v>5.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3734583258628845</v>
+        <v>1.047066867351532</v>
       </c>
     </row>
     <row r="10">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
         <v>2</v>
@@ -998,25 +998,25 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6528467038356885</v>
+        <v>0.5764697685664032</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6161383121489032</v>
+        <v>0.5640341118715634</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6530061056110731</v>
+        <v>0.5765805626926813</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3469938943889269</v>
+        <v>0.4234194373073187</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6</v>
+        <v>61</v>
       </c>
       <c r="O10" t="n">
         <v>5.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.047066867351532</v>
+        <v>1.068649959564209</v>
       </c>
     </row>
     <row r="11">
@@ -1045,7 +1045,7 @@
         <v>42</v>
       </c>
       <c r="G11" t="n">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -1054,16 +1054,16 @@
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5764697685664032</v>
+        <v>0.6305306012203227</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5640341118715634</v>
+        <v>0.6160235809600753</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5765805626926813</v>
+        <v>0.6307120517741601</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4234194373073187</v>
+        <v>0.3692879482258399</v>
       </c>
       <c r="N11" t="n">
         <v>61</v>
@@ -1072,7 +1072,7 @@
         <v>5.2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.068649959564209</v>
+        <v>1.052653336524963</v>
       </c>
     </row>
     <row r="12">
@@ -1101,7 +1101,7 @@
         <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>128</v>
+        <v>2048</v>
       </c>
       <c r="H12" t="n">
         <v>2</v>
@@ -1110,25 +1110,25 @@
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6305306012203227</v>
+        <v>0.651756599032782</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6160235809600753</v>
+        <v>0.6062214753192839</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6307120517741601</v>
+        <v>0.6519477944599638</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3692879482258399</v>
+        <v>0.3480522055400362</v>
       </c>
       <c r="N12" t="n">
-        <v>61</v>
+        <v>54.8</v>
       </c>
       <c r="O12" t="n">
         <v>5.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.052653336524963</v>
+        <v>1.069352746009827</v>
       </c>
     </row>
     <row r="13">
@@ -1157,34 +1157,34 @@
         <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>2048</v>
+        <v>1024</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>0.651756599032782</v>
+        <v>0.6791552443693604</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6062214753192839</v>
+        <v>0.622784630336344</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6519477944599638</v>
+        <v>0.6793303050837542</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3480522055400362</v>
+        <v>0.3206696949162457</v>
       </c>
       <c r="N13" t="n">
-        <v>54.8</v>
+        <v>42.6</v>
       </c>
       <c r="O13" t="n">
         <v>5.2</v>
       </c>
       <c r="P13" t="n">
-        <v>1.069352746009827</v>
+        <v>1.040702199935913</v>
       </c>
     </row>
     <row r="14">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>deepcdf</t>
+          <t>deepsurv</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1222,25 +1222,25 @@
         <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6791552443693604</v>
+        <v>0.6804162190034804</v>
       </c>
       <c r="K14" t="n">
-        <v>0.622784630336344</v>
+        <v>0.6001763767872317</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6793303050837542</v>
+        <v>0.6806752447122628</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3206696949162457</v>
+        <v>0.3193247552877372</v>
       </c>
       <c r="N14" t="n">
-        <v>42.6</v>
+        <v>61.2</v>
       </c>
       <c r="O14" t="n">
         <v>5.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.040702199935913</v>
+        <v>4.436575555801392</v>
       </c>
     </row>
     <row r="15">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>deepsurv</t>
+          <t>deepcdf</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1275,28 +1275,28 @@
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6804162190034804</v>
+        <v>0.6843827303402733</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6001763767872317</v>
+        <v>0.6105398366125497</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6806752447122628</v>
+        <v>0.6845486984173281</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3193247552877372</v>
+        <v>0.315451301582672</v>
       </c>
       <c r="N15" t="n">
-        <v>61.2</v>
+        <v>38.4</v>
       </c>
       <c r="O15" t="n">
         <v>5.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.436575555801392</v>
+        <v>1.3227863073349</v>
       </c>
     </row>
     <row r="16">
@@ -1331,19 +1331,19 @@
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6843827303402733</v>
+        <v>0.6827355602692202</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6105398366125497</v>
+        <v>0.6199791947914577</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6845486984173281</v>
+        <v>0.6828988894016792</v>
       </c>
       <c r="M16" t="n">
-        <v>0.315451301582672</v>
+        <v>0.3171011105983207</v>
       </c>
       <c r="N16" t="n">
         <v>38.4</v>
@@ -1352,7 +1352,7 @@
         <v>5.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.3227863073349</v>
+        <v>1.242492163181305</v>
       </c>
     </row>
     <row r="17">
@@ -1387,28 +1387,28 @@
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6827355602692202</v>
+        <v>0.6834502217126038</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6199791947914577</v>
+        <v>0.6187248016797591</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6828988894016792</v>
+        <v>0.6836418901573736</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3171011105983207</v>
+        <v>0.3163581098426262</v>
       </c>
       <c r="N17" t="n">
-        <v>38.4</v>
+        <v>45</v>
       </c>
       <c r="O17" t="n">
         <v>5.2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.242492163181305</v>
+        <v>1.276926386356354</v>
       </c>
     </row>
     <row r="18">
@@ -1443,28 +1443,28 @@
         <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6834502217126038</v>
+        <v>0.6802367286705338</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6187248016797591</v>
+        <v>0.6207041745714019</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6836418901573736</v>
+        <v>0.680396916624149</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3163581098426262</v>
+        <v>0.319603083375851</v>
       </c>
       <c r="N18" t="n">
-        <v>45</v>
+        <v>38.4</v>
       </c>
       <c r="O18" t="n">
         <v>5.2</v>
       </c>
       <c r="P18" t="n">
-        <v>1.276926386356354</v>
+        <v>0.9529659807682037</v>
       </c>
     </row>
     <row r="19">
@@ -1499,19 +1499,19 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6802367286705338</v>
+        <v>0.6816071556080303</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6207041745714019</v>
+        <v>0.621604660884118</v>
       </c>
       <c r="L19" t="n">
-        <v>0.680396916624149</v>
+        <v>0.681768938752686</v>
       </c>
       <c r="M19" t="n">
-        <v>0.319603083375851</v>
+        <v>0.3182310612473141</v>
       </c>
       <c r="N19" t="n">
         <v>38.4</v>
@@ -1520,7 +1520,7 @@
         <v>5.2</v>
       </c>
       <c r="P19" t="n">
-        <v>0.9529659807682037</v>
+        <v>1.191901123523712</v>
       </c>
     </row>
     <row r="20">
@@ -1552,22 +1552,22 @@
         <v>1024</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6816071556080303</v>
+        <v>0.6826902932449965</v>
       </c>
       <c r="K20" t="n">
-        <v>0.621604660884118</v>
+        <v>0.6107223928734471</v>
       </c>
       <c r="L20" t="n">
-        <v>0.681768938752686</v>
+        <v>0.6828541625941477</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3182310612473141</v>
+        <v>0.3171458374058523</v>
       </c>
       <c r="N20" t="n">
         <v>38.4</v>
@@ -1576,7 +1576,7 @@
         <v>5.2</v>
       </c>
       <c r="P20" t="n">
-        <v>1.191901123523712</v>
+        <v>1.322994327545166</v>
       </c>
     </row>
     <row r="21">
@@ -1611,28 +1611,28 @@
         <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6826902932449965</v>
+        <v>0.6871229461711003</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6107223928734471</v>
+        <v>0.6231247434517455</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6828541625941477</v>
+        <v>0.6873195508118911</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3171458374058523</v>
+        <v>0.3126804491881088</v>
       </c>
       <c r="N21" t="n">
-        <v>38.4</v>
+        <v>45</v>
       </c>
       <c r="O21" t="n">
         <v>5.2</v>
       </c>
       <c r="P21" t="n">
-        <v>1.322994327545166</v>
+        <v>1.255576312541962</v>
       </c>
     </row>
     <row r="22">
@@ -1667,28 +1667,28 @@
         <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6871229461711003</v>
+        <v>0.685919923539019</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6231247434517455</v>
+        <v>0.6258798499096814</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6873195508118911</v>
+        <v>0.686097279380572</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3126804491881088</v>
+        <v>0.3139027206194281</v>
       </c>
       <c r="N22" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O22" t="n">
         <v>5.2</v>
       </c>
       <c r="P22" t="n">
-        <v>1.255576312541962</v>
+        <v>1.123117518424988</v>
       </c>
     </row>
     <row r="23">
@@ -1720,31 +1720,31 @@
         <v>1024</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J23" t="n">
-        <v>0.685919923539019</v>
+        <v>0.668377770143479</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6258798499096814</v>
+        <v>0.6243576104929047</v>
       </c>
       <c r="L23" t="n">
-        <v>0.686097279380572</v>
+        <v>0.6685450208079787</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3139027206194281</v>
+        <v>0.3314549791920212</v>
       </c>
       <c r="N23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O23" t="n">
         <v>5.2</v>
       </c>
       <c r="P23" t="n">
-        <v>1.123117518424988</v>
+        <v>1.183988857269287</v>
       </c>
     </row>
     <row r="24">
@@ -1776,31 +1776,31 @@
         <v>1024</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
         <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>0.668377770143479</v>
+        <v>0.688145035818958</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6243576104929047</v>
+        <v>0.6134494527236518</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6685450208079787</v>
+        <v>0.6883877965769255</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3314549791920212</v>
+        <v>0.3116122034230746</v>
       </c>
       <c r="N24" t="n">
-        <v>42</v>
+        <v>54.2</v>
       </c>
       <c r="O24" t="n">
         <v>5.2</v>
       </c>
       <c r="P24" t="n">
-        <v>1.183988857269287</v>
+        <v>2.185201358795166</v>
       </c>
     </row>
     <row r="25">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>deepcdf</t>
+          <t>deepsurv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1835,28 +1835,28 @@
         <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
-        <v>0.688145035818958</v>
+        <v>0.6801426266085945</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6134494527236518</v>
+        <v>0.5968735653046834</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6883877965769255</v>
+        <v>0.6804031842961219</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3116122034230746</v>
+        <v>0.319596815703878</v>
       </c>
       <c r="N25" t="n">
-        <v>54.2</v>
+        <v>61.2</v>
       </c>
       <c r="O25" t="n">
         <v>5.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.185201358795166</v>
+        <v>4.43836030960083</v>
       </c>
     </row>
     <row r="26">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>deepcdf</t>
+          <t>deephit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1891,28 +1891,1084 @@
         <v>2</v>
       </c>
       <c r="I26" t="n">
+        <v>20</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5043396477817315</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5044065488922274</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>42092.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.4131297618150711</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>100</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.690745711182826</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.6099631171990567</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6909292147405945</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3090707852594054</v>
+      </c>
+      <c r="N27" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.062566447257995</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>100</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.685156104002945</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5997894962661808</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.6854412494703865</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.3145587505296135</v>
+      </c>
+      <c r="N28" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4.42674150466919</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>100</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6096005556012497</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.6118667448893016</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6097381159311063</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.3902618840688937</v>
+      </c>
+      <c r="N29" t="n">
+        <v>56</v>
+      </c>
+      <c r="O29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.695748543739319</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>100</v>
+      </c>
+      <c r="F30" t="n">
+        <v>42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6062366088240927</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6081488267064363</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6063792422353138</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.3936207577646862</v>
+      </c>
+      <c r="N30" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.698982203006744</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>100</v>
+      </c>
+      <c r="F31" t="n">
+        <v>42</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.688597048707558</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.6127911544953155</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.6888037544424559</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.3111962455575441</v>
+      </c>
+      <c r="N31" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.64710088968277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>100</v>
+      </c>
+      <c r="F32" t="n">
+        <v>42</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6869770187459265</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6147459458399422</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6871455700341587</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.3128544299658413</v>
+      </c>
+      <c r="N32" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.2822789579629898</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>200</v>
+      </c>
+      <c r="F33" t="n">
+        <v>42</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.6804134549461704</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6075861596984893</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6805947794830074</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.3194052205169925</v>
+      </c>
+      <c r="N33" t="n">
+        <v>42</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.2848314315080643</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>500</v>
+      </c>
+      <c r="F34" t="n">
+        <v>42</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6678077768745967</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5978058678232413</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.6679847616436019</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.3320152383563981</v>
+      </c>
+      <c r="N34" t="n">
+        <v>45</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.292648708820343</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>100</v>
+      </c>
+      <c r="F35" t="n">
+        <v>42</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.6332150588630515</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.6072310043468825</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6333677014975982</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.3666322985024018</v>
+      </c>
+      <c r="N35" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="O35" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.467024409770965</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>100</v>
+      </c>
+      <c r="F36" t="n">
+        <v>42</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.6801426266085945</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5968735653046834</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.6804031842961219</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.319596815703878</v>
+      </c>
+      <c r="N36" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="O36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4.43836030960083</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+      <c r="F37" t="n">
+        <v>42</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.502396481704696</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5044060279722731</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
+        <v>41750</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.3909370243549347</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.690166355673657</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6188710590755682</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6904023703941398</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.3095976296058602</v>
+      </c>
+      <c r="N38" t="n">
+        <v>54</v>
+      </c>
+      <c r="O38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.2844225496053696</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>100</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>12</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.685156104002945</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5997894962661808</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.6854412494703865</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.3145587505296135</v>
+      </c>
+      <c r="N39" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.42674150466919</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>100</v>
+      </c>
+      <c r="F40" t="n">
+        <v>42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5326644952719417</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4857417662126625</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.5335756561322663</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.4664243438677337</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1179.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.079030537605286</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>100</v>
+      </c>
+      <c r="F41" t="n">
+        <v>42</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.469817174215867</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5087215682228793</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.4697880445877676</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5302119554122324</v>
+      </c>
+      <c r="N41" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>12.89252223968506</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" t="n">
+        <v>42</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+      <c r="I42" t="n">
         <v>18</v>
       </c>
-      <c r="J26" t="n">
-        <v>0.6822036857009222</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.629776194822629</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.6823877343334368</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.3176122656665631</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="J42" t="n">
+        <v>0.6877551169137048</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6158167290203284</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6879480235909872</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.3120519764090128</v>
+      </c>
+      <c r="N42" t="n">
         <v>44</v>
       </c>
-      <c r="O26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.231118047237396</v>
+      <c r="O42" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.3275839656591416</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>100</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6882536218788753</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.616530496168161</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.688423061201671</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.311576938798329</v>
+      </c>
+      <c r="N43" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.3249658703804016</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>100</v>
+      </c>
+      <c r="F44" t="n">
+        <v>42</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6876929838287632</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6157534184123502</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6878813824789879</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.312118617521012</v>
+      </c>
+      <c r="N44" t="n">
+        <v>42</v>
+      </c>
+      <c r="O44" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.3218619018793106</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>deepcdf</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" t="n">
+        <v>42</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6878423740926897</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6163733697552339</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6880395062907467</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.3119604937092532</v>
+      </c>
+      <c r="N45" t="n">
+        <v>45</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.3261524945497513</v>
       </c>
     </row>
   </sheetData>

--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,19 +640,169 @@
         <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>0.688256404971306</v>
+        <v>0.6882584958526518</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6601063106682223</v>
+        <v>0.660102213773151</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7192364355340694</v>
+        <v>0.7191786679256227</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2270397186064305</v>
+        <v>0.2260625632926691</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3250578880310059</v>
+        <v>1.306416988372803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>angularord</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5973814565401313</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5689144268258739</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7139640811190757</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1872036725484002</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.009273272752762</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6072863040761272</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.585984410740348</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6976447961469132</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1855707960723762</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8395238518714905</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>angularord</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>42</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6305040283226333</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6104262849780721</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7100137651324062</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1864300048534379</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.8700867712497711</v>
       </c>
     </row>
   </sheetData>

--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,40 +466,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Hidden Dimensions</t>
+          <t>Bins</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>layers</t>
+          <t>C-index</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Bins</t>
+          <t>C-index IPCW</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>C-index</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>C-index IPCW</t>
+          <t>IBS</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>IBS</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Loss</t>
         </is>
@@ -513,7 +503,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>discrete</t>
+          <t>ordsurv</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,28 +521,22 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>1024</v>
+        <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0.6852371341327785</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>0.6576712887330819</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6808389154084773</v>
+        <v>0.7163563051072762</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6601973958101739</v>
+        <v>0.22114318088684</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7165190487518288</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1789167342476798</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.5799764752388</v>
+        <v>0.3220754504203797</v>
       </c>
     </row>
     <row r="3">
@@ -563,7 +547,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>deephit</t>
+          <t>deepsurv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -581,28 +565,22 @@
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>1024</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0.6757184370594498</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>0.6579954264657134</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5304497181769706</v>
+        <v>0.7103725693090943</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5197203091688789</v>
+        <v>0.4466969099446773</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6811248197035255</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1784186464757679</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9896630465984344</v>
+        <v>4.449938774108887</v>
       </c>
     </row>
     <row r="4">
@@ -613,7 +591,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>deepcdf</t>
+          <t>deephit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -631,28 +609,22 @@
         <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>1024</v>
+        <v>18</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0.5661026287415682</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>0.5493398657424745</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6882584958526518</v>
+        <v>0.7145410068895892</v>
       </c>
       <c r="K4" t="n">
-        <v>0.660102213773151</v>
+        <v>0.1711686995285172</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7191786679256227</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2260625632926691</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.306416988372803</v>
+        <v>1.000468921661377</v>
       </c>
     </row>
     <row r="5">
@@ -663,7 +635,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>angularord</t>
+          <t>discrete</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -681,128 +653,22 @@
         <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>1024</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0.6764483730943212</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>0.6518822119055928</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5973814565401313</v>
+        <v>0.7122330969330288</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5689144268258739</v>
+        <v>0.1832623873778424</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7139640811190757</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1872036725484002</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.009273272752762</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>metabric</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>deephit</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>42</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1024</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6072863040761272</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.585984410740348</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.6976447961469132</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.1855707960723762</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.8395238518714905</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>metabric</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>angularord</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>42</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1024</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6305040283226333</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6104262849780721</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.7100137651324062</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.1864300048534379</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.8700867712497711</v>
+        <v>1.619753873348236</v>
       </c>
     </row>
   </sheetData>

--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,25 +518,25 @@
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6852371341327785</v>
+        <v>0.6854040903362828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6576712887330819</v>
+        <v>0.6401825999531293</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7163563051072762</v>
+        <v>0.7136995859095091</v>
       </c>
       <c r="K2" t="n">
-        <v>0.22114318088684</v>
+        <v>0.2210142312267157</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3220754504203797</v>
+        <v>0.3295798510313034</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +547,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>deepsurv</t>
+          <t>ordsurv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -565,22 +565,22 @@
         <v>42</v>
       </c>
       <c r="G3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6757184370594498</v>
+        <v>0.6862243872077478</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6579954264657134</v>
+        <v>0.6603862784178698</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7103725693090943</v>
+        <v>0.7204734225531559</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4466969099446773</v>
+        <v>0.2177149607417847</v>
       </c>
       <c r="L3" t="n">
-        <v>4.449938774108887</v>
+        <v>0.329210576415062</v>
       </c>
     </row>
     <row r="4">
@@ -591,7 +591,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>deephit</t>
+          <t>ordsurv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -606,69 +606,25 @@
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>42</v>
+        <v>2025</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5661026287415682</v>
+        <v>0.6881469706433275</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5493398657424745</v>
+        <v>0.6544913333757737</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7145410068895892</v>
+        <v>0.7195705900578925</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1711686995285172</v>
+        <v>0.2205810577465689</v>
       </c>
       <c r="L4" t="n">
-        <v>1.000468921661377</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>metabric</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>discrete</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MLP</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" t="n">
-        <v>42</v>
-      </c>
-      <c r="G5" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6764483730943212</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6518822119055928</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7122330969330288</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1832623873778424</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.619753873348236</v>
+        <v>0.3287452518939972</v>
       </c>
     </row>
   </sheetData>

--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,6 +627,754 @@
         <v>0.3287452518939972</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ordsurv</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>114514</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6876891700727679</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6678416566434165</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7055715590482865</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2184216664967229</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3287896931171417</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ordsurv</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>777</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6857680560994415</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6570324774629522</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7213057396047634</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2250764839050197</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.329041662812233</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6778009716605726</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6469936539465078</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.706659738684017</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4420582538211454</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.452223205566407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6757184370594498</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6579954264657134</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.7124176792736087</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4466830722181915</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.449938774108887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.681517880277472</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6568242707765587</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7128914617349931</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4375155757882879</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.443024063110352</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>100</v>
+      </c>
+      <c r="F10" t="n">
+        <v>114514</v>
+      </c>
+      <c r="G10" t="n">
+        <v>25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6780632645639977</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6661602072260557</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6992096892760241</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4519752590025569</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.441550636291504</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>deepsurv</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>777</v>
+      </c>
+      <c r="G11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6738161309327568</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6461998116317488</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.708452595454218</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4334768692987822</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.456241607666016</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5628684340492367</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5502729240400027</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7108437489113886</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1758289672562358</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.078629648685455</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" t="n">
+        <v>42</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5609475164679415</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5454354801537897</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7132504080952471</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1708549630700373</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.073342627286911</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5618225827887104</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5452511946520684</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7172183115831963</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1717839746085424</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.076874685287476</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>100</v>
+      </c>
+      <c r="F15" t="n">
+        <v>114514</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5627919104293809</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5476233239879378</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7042272462572872</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.173923720632017</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.072924596071243</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>100</v>
+      </c>
+      <c r="F16" t="n">
+        <v>777</v>
+      </c>
+      <c r="G16" t="n">
+        <v>25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5667112848375626</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5548338718197809</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.7204655436620838</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1769312850639808</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.073465240001678</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>100</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6797823304223375</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6327306360268532</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7091588642527988</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.190113912046979</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.775596106052399</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>42</v>
+      </c>
+      <c r="G18" t="n">
+        <v>25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.674290123109141</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6500362548772668</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7078535083834971</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1849259518783946</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.766295909881592</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6766392161454737</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6419110917290799</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7096684555716676</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1879179357962965</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.775444304943085</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>100</v>
+      </c>
+      <c r="F20" t="n">
+        <v>114514</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6783900235620515</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6662895747221427</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6985113835463259</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1878275685618645</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.76797525882721</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>100</v>
+      </c>
+      <c r="F21" t="n">
+        <v>777</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6783579291711574</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6481462203982711</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7161476402726279</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1928239435872588</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.768315649032593</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -524,19 +524,19 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6854040903362828</v>
+        <v>0.6853265353655982</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6401825999531293</v>
+        <v>0.6409953476514005</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7136995859095091</v>
+        <v>0.7071740750441873</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2210142312267157</v>
+        <v>0.2227014080283235</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3295798510313034</v>
+        <v>0.329488605260849</v>
       </c>
     </row>
     <row r="3">
@@ -568,19 +568,19 @@
         <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6862243872077478</v>
+        <v>0.6857359663176498</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6603862784178698</v>
+        <v>0.6584400180201805</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7204734225531559</v>
+        <v>0.7176943892454217</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2177149607417847</v>
+        <v>0.2196974584932213</v>
       </c>
       <c r="L3" t="n">
-        <v>0.329210576415062</v>
+        <v>0.329160726070404</v>
       </c>
     </row>
     <row r="4">
@@ -612,19 +612,19 @@
         <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6881469706433275</v>
+        <v>0.6885853240120544</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6544913333757737</v>
+        <v>0.6547445191573281</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7195705900578925</v>
+        <v>0.7194694163814631</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2205810577465689</v>
+        <v>0.2222492864777658</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3287452518939972</v>
+        <v>0.3287219345569611</v>
       </c>
     </row>
     <row r="5">
@@ -656,19 +656,19 @@
         <v>25</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6876891700727679</v>
+        <v>0.687459567655731</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6678416566434165</v>
+        <v>0.6693463014148475</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7055715590482865</v>
+        <v>0.7051050366190009</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2184216664967229</v>
+        <v>0.2201447488959713</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3287896931171417</v>
+        <v>0.328633114695549</v>
       </c>
     </row>
     <row r="6">
@@ -700,19 +700,19 @@
         <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6857680560994415</v>
+        <v>0.6849805140208457</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6570324774629522</v>
+        <v>0.6549527486790258</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7213057396047634</v>
+        <v>0.7221814980995405</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2250764839050197</v>
+        <v>0.2267200021816793</v>
       </c>
       <c r="L6" t="n">
-        <v>0.329041662812233</v>
+        <v>0.3289659231901169</v>
       </c>
     </row>
     <row r="7">

--- a/results/5Fold_metabric.xlsx
+++ b/results/5Fold_metabric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,19 +524,107 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6790098414379446</v>
+        <v>0.6779703603289986</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6563898959842719</v>
+        <v>0.6564067883623006</v>
       </c>
       <c r="J2" t="n">
-        <v>0.698753953374105</v>
+        <v>0.6891543955424604</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4448413683758307</v>
+        <v>0.4460482178402356</v>
       </c>
       <c r="L2" t="n">
-        <v>4.432408666610717</v>
+        <v>4.432962703704834</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>deephit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>42</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5551781290153384</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5404047777430053</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6815054443762449</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2043470859316622</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.084417736530304</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>metabric</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>discrete</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MLP</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6727264406766944</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.655201589654378</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6552720970119122</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2718068109190334</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.033916068077088</v>
       </c>
     </row>
   </sheetData>
